--- a/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoCapital.xlsx
+++ b/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoCapital.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ORGANISMOS DIRECCION EJECUTIVA</t>
   </si>
@@ -29,9 +29,6 @@
     <t>PRESUPUESTO  DE  INVERSIONES 2017 -    FORMULACION 2017</t>
   </si>
   <si>
-    <t>(En Nuevos Soles)</t>
-  </si>
-  <si>
     <t>RUBRO</t>
   </si>
   <si>
@@ -39,6 +36,15 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>(En Soles)</t>
+  </si>
+  <si>
+    <t>CENTRO COSTO</t>
+  </si>
+  <si>
+    <t>P/U</t>
   </si>
 </sst>
 </file>
@@ -70,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -102,15 +108,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -119,9 +160,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,91 +462,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D10"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B8:D8"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoCapital.xlsx
+++ b/AppV2/App_Data/reportes/plantilla_reporte/ReporteGeneralGastoCapital.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ORGANISMOS DIRECCION EJECUTIVA</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>P/U</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
   </si>
 </sst>
 </file>
@@ -140,6 +143,15 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -151,15 +163,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -462,117 +465,122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="62.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B8:F8"/>
+  <mergeCells count="13">
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
